--- a/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F2_relay_banshee.xlsx
+++ b/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F2_relay_banshee.xlsx
@@ -152,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -197,6 +197,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -786,7 +792,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,8 +897,8 @@
       <c r="F2" s="5">
         <v>0.5</v>
       </c>
-      <c r="G2" s="6">
-        <v>400</v>
+      <c r="G2" s="16">
+        <v>1200</v>
       </c>
       <c r="H2" s="10">
         <v>1</v>
@@ -903,20 +909,20 @@
       <c r="J2" s="6">
         <v>0</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="17">
+        <v>3.4135813600798519</v>
+      </c>
+      <c r="L2" s="6">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6">
+        <v>1</v>
+      </c>
+      <c r="N2" s="6">
         <v>0.8</v>
       </c>
-      <c r="L2" s="6">
-        <v>1</v>
-      </c>
-      <c r="M2" s="6">
-        <v>1</v>
-      </c>
-      <c r="N2" s="6">
-        <v>0.9</v>
-      </c>
       <c r="O2" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P2" s="6">
         <v>20</v>
@@ -959,8 +965,8 @@
       <c r="F3" s="5">
         <v>0.5</v>
       </c>
-      <c r="G3" s="6">
-        <v>600</v>
+      <c r="G3" s="16">
+        <v>1200</v>
       </c>
       <c r="H3" s="10">
         <v>1</v>
@@ -971,20 +977,20 @@
       <c r="J3" s="6">
         <v>0</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="17">
+        <v>1.7039851694832704</v>
+      </c>
+      <c r="L3" s="6">
+        <v>1</v>
+      </c>
+      <c r="M3" s="6">
+        <v>1</v>
+      </c>
+      <c r="N3" s="6">
         <v>0.8</v>
       </c>
-      <c r="L3" s="6">
-        <v>1</v>
-      </c>
-      <c r="M3" s="6">
-        <v>1</v>
-      </c>
-      <c r="N3" s="6">
-        <v>0.9</v>
-      </c>
       <c r="O3" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P3" s="6">
         <v>20</v>
@@ -1027,8 +1033,8 @@
       <c r="F4" s="5">
         <v>0.5</v>
       </c>
-      <c r="G4" s="6">
-        <v>600</v>
+      <c r="G4" s="16">
+        <v>1200</v>
       </c>
       <c r="H4" s="10">
         <v>1</v>
@@ -1039,20 +1045,20 @@
       <c r="J4" s="6">
         <v>0</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="17">
+        <v>0.80187537387448016</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1</v>
+      </c>
+      <c r="M4" s="6">
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
         <v>0.8</v>
       </c>
-      <c r="L4" s="6">
-        <v>1</v>
-      </c>
-      <c r="M4" s="6">
-        <v>1</v>
-      </c>
-      <c r="N4" s="6">
-        <v>0.9</v>
-      </c>
       <c r="O4" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P4" s="6">
         <v>20</v>
@@ -1095,8 +1101,8 @@
       <c r="F5" s="5">
         <v>0.5</v>
       </c>
-      <c r="G5" s="6">
-        <v>450</v>
+      <c r="G5" s="16">
+        <v>1200</v>
       </c>
       <c r="H5" s="10">
         <v>1</v>
@@ -1107,20 +1113,20 @@
       <c r="J5" s="6">
         <v>0</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="17">
+        <v>0.99752525475971998</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1</v>
+      </c>
+      <c r="M5" s="6">
+        <v>1</v>
+      </c>
+      <c r="N5" s="6">
         <v>0.8</v>
       </c>
-      <c r="L5" s="6">
-        <v>1</v>
-      </c>
-      <c r="M5" s="6">
-        <v>1</v>
-      </c>
-      <c r="N5" s="6">
-        <v>0.9</v>
-      </c>
       <c r="O5" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P5" s="6">
         <v>20</v>
@@ -1163,8 +1169,8 @@
       <c r="F6" s="5">
         <v>0.5</v>
       </c>
-      <c r="G6" s="6">
-        <v>250</v>
+      <c r="G6" s="16">
+        <v>1200</v>
       </c>
       <c r="H6" s="10">
         <v>1</v>
@@ -1175,20 +1181,20 @@
       <c r="J6" s="6">
         <v>0</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="17">
+        <v>0.50117210867155004</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="6">
         <v>0.8</v>
       </c>
-      <c r="L6" s="6">
-        <v>1</v>
-      </c>
-      <c r="M6" s="6">
-        <v>1</v>
-      </c>
-      <c r="N6" s="6">
-        <v>0.9</v>
-      </c>
       <c r="O6" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P6" s="6">
         <v>20</v>
@@ -1231,8 +1237,8 @@
       <c r="F7" s="5">
         <v>0.5</v>
       </c>
-      <c r="G7" s="6">
-        <v>50</v>
+      <c r="G7" s="16">
+        <v>1200</v>
       </c>
       <c r="H7" s="10">
         <v>1</v>
@@ -1243,20 +1249,20 @@
       <c r="J7" s="6">
         <v>0</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="17">
+        <v>0.10023442173431002</v>
+      </c>
+      <c r="L7" s="6">
+        <v>1</v>
+      </c>
+      <c r="M7" s="6">
+        <v>1</v>
+      </c>
+      <c r="N7" s="6">
         <v>0.8</v>
       </c>
-      <c r="L7" s="6">
-        <v>1</v>
-      </c>
-      <c r="M7" s="6">
-        <v>1</v>
-      </c>
-      <c r="N7" s="6">
-        <v>0.9</v>
-      </c>
       <c r="O7" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P7" s="6">
         <v>20</v>
@@ -1299,8 +1305,8 @@
       <c r="F8" s="5">
         <v>0.5</v>
       </c>
-      <c r="G8" s="6">
-        <v>400</v>
+      <c r="G8" s="16">
+        <v>1200</v>
       </c>
       <c r="H8" s="10">
         <v>1</v>
@@ -1311,20 +1317,20 @@
       <c r="J8" s="6">
         <v>0</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="17">
+        <v>0.75175816300732523</v>
+      </c>
+      <c r="L8" s="6">
+        <v>1</v>
+      </c>
+      <c r="M8" s="6">
+        <v>1</v>
+      </c>
+      <c r="N8" s="6">
         <v>0.8</v>
       </c>
-      <c r="L8" s="6">
-        <v>1</v>
-      </c>
-      <c r="M8" s="6">
-        <v>1</v>
-      </c>
-      <c r="N8" s="6">
-        <v>0.9</v>
-      </c>
       <c r="O8" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P8" s="6">
         <v>20</v>
@@ -1367,8 +1373,8 @@
       <c r="F9" s="5">
         <v>0.5</v>
       </c>
-      <c r="G9" s="6">
-        <v>300</v>
+      <c r="G9" s="16">
+        <v>1200</v>
       </c>
       <c r="H9" s="10">
         <v>1</v>
@@ -1379,20 +1385,20 @@
       <c r="J9" s="6">
         <v>0</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="17">
+        <v>0.66501683650647991</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1</v>
+      </c>
+      <c r="M9" s="6">
+        <v>1</v>
+      </c>
+      <c r="N9" s="6">
         <v>0.8</v>
       </c>
-      <c r="L9" s="6">
-        <v>1</v>
-      </c>
-      <c r="M9" s="6">
-        <v>1</v>
-      </c>
-      <c r="N9" s="6">
-        <v>0.9</v>
-      </c>
       <c r="O9" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P9" s="6">
         <v>20</v>
@@ -1435,8 +1441,8 @@
       <c r="F10" s="5">
         <v>0.5</v>
       </c>
-      <c r="G10" s="6">
-        <v>250</v>
+      <c r="G10" s="16">
+        <v>1200</v>
       </c>
       <c r="H10" s="10">
         <v>1</v>
@@ -1447,20 +1453,20 @@
       <c r="J10" s="6">
         <v>0</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="17">
+        <v>0.50117210867155004</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1</v>
+      </c>
+      <c r="M10" s="6">
+        <v>1</v>
+      </c>
+      <c r="N10" s="6">
         <v>0.8</v>
       </c>
-      <c r="L10" s="6">
-        <v>1</v>
-      </c>
-      <c r="M10" s="6">
-        <v>1</v>
-      </c>
-      <c r="N10" s="6">
-        <v>0.9</v>
-      </c>
       <c r="O10" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P10" s="6">
         <v>20</v>
@@ -1503,8 +1509,8 @@
       <c r="F11" s="5">
         <v>0.5</v>
       </c>
-      <c r="G11" s="6">
-        <v>100</v>
+      <c r="G11" s="16">
+        <v>1200</v>
       </c>
       <c r="H11" s="10">
         <v>1</v>
@@ -1515,20 +1521,20 @@
       <c r="J11" s="6">
         <v>0</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="17">
+        <v>0.20046884346862004</v>
+      </c>
+      <c r="L11" s="6">
+        <v>1</v>
+      </c>
+      <c r="M11" s="6">
+        <v>1</v>
+      </c>
+      <c r="N11" s="6">
         <v>0.8</v>
       </c>
-      <c r="L11" s="6">
-        <v>1</v>
-      </c>
-      <c r="M11" s="6">
-        <v>1</v>
-      </c>
-      <c r="N11" s="6">
-        <v>0.9</v>
-      </c>
       <c r="O11" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P11" s="6">
         <v>20</v>
@@ -1571,8 +1577,8 @@
       <c r="F12" s="5">
         <v>0.5</v>
       </c>
-      <c r="G12" s="6">
-        <v>450</v>
+      <c r="G12" s="16">
+        <v>1200</v>
       </c>
       <c r="H12" s="10">
         <v>1</v>
@@ -1583,20 +1589,20 @@
       <c r="J12" s="6">
         <v>0</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="17">
+        <v>1.0023442173431001</v>
+      </c>
+      <c r="L12" s="6">
+        <v>1</v>
+      </c>
+      <c r="M12" s="6">
+        <v>1</v>
+      </c>
+      <c r="N12" s="6">
         <v>0.8</v>
       </c>
-      <c r="L12" s="6">
-        <v>1</v>
-      </c>
-      <c r="M12" s="6">
-        <v>1</v>
-      </c>
-      <c r="N12" s="6">
-        <v>0.9</v>
-      </c>
       <c r="O12" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P12" s="6">
         <v>20</v>
@@ -1639,8 +1645,8 @@
       <c r="F13" s="5">
         <v>0.5</v>
       </c>
-      <c r="G13" s="6">
-        <v>900</v>
+      <c r="G13" s="16">
+        <v>3500</v>
       </c>
       <c r="H13" s="10">
         <v>1</v>
@@ -1651,20 +1657,20 @@
       <c r="J13" s="6">
         <v>0</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="17">
+        <v>0.79042001139055906</v>
+      </c>
+      <c r="L13" s="6">
+        <v>1</v>
+      </c>
+      <c r="M13" s="6">
+        <v>1</v>
+      </c>
+      <c r="N13" s="6">
         <v>0.8</v>
       </c>
-      <c r="L13" s="6">
-        <v>1</v>
-      </c>
-      <c r="M13" s="6">
-        <v>1</v>
-      </c>
-      <c r="N13" s="6">
-        <v>0.9</v>
-      </c>
       <c r="O13" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P13" s="6">
         <v>20</v>
@@ -1707,8 +1713,8 @@
       <c r="F14" s="5">
         <v>0.5</v>
       </c>
-      <c r="G14" s="6">
-        <v>600</v>
+      <c r="G14" s="16">
+        <v>3500</v>
       </c>
       <c r="H14" s="11">
         <v>0</v>
@@ -1719,20 +1725,20 @@
       <c r="J14" s="6">
         <v>0</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="17">
+        <v>1.4128571428571426</v>
+      </c>
+      <c r="L14" s="6">
+        <v>1</v>
+      </c>
+      <c r="M14" s="6">
+        <v>1</v>
+      </c>
+      <c r="N14" s="6">
         <v>0.8</v>
       </c>
-      <c r="L14" s="6">
-        <v>1</v>
-      </c>
-      <c r="M14" s="6">
-        <v>1</v>
-      </c>
-      <c r="N14" s="6">
-        <v>0.9</v>
-      </c>
       <c r="O14" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P14" s="6">
         <v>20</v>
@@ -1775,8 +1781,8 @@
       <c r="F15" s="5">
         <v>0.5</v>
       </c>
-      <c r="G15" s="6">
-        <v>200</v>
+      <c r="G15" s="16">
+        <v>1200</v>
       </c>
       <c r="H15" s="10">
         <v>1</v>
@@ -1787,20 +1793,20 @@
       <c r="J15" s="6">
         <v>0</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="17">
+        <v>0.40093768693724008</v>
+      </c>
+      <c r="L15" s="6">
+        <v>1</v>
+      </c>
+      <c r="M15" s="6">
+        <v>1</v>
+      </c>
+      <c r="N15" s="6">
         <v>0.8</v>
       </c>
-      <c r="L15" s="6">
-        <v>1</v>
-      </c>
-      <c r="M15" s="6">
-        <v>1</v>
-      </c>
-      <c r="N15" s="6">
-        <v>0.9</v>
-      </c>
       <c r="O15" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P15" s="6">
         <v>20</v>
@@ -1843,8 +1849,8 @@
       <c r="F16" s="5">
         <v>0.5</v>
       </c>
-      <c r="G16" s="6">
-        <v>200</v>
+      <c r="G16" s="16">
+        <v>1200</v>
       </c>
       <c r="H16" s="10">
         <v>1</v>
@@ -1855,20 +1861,20 @@
       <c r="J16" s="6">
         <v>0</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="17">
+        <v>0.40093768693724008</v>
+      </c>
+      <c r="L16" s="6">
+        <v>1</v>
+      </c>
+      <c r="M16" s="6">
+        <v>1</v>
+      </c>
+      <c r="N16" s="6">
         <v>0.8</v>
       </c>
-      <c r="L16" s="6">
-        <v>1</v>
-      </c>
-      <c r="M16" s="6">
-        <v>1</v>
-      </c>
-      <c r="N16" s="6">
-        <v>0.9</v>
-      </c>
       <c r="O16" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P16" s="6">
         <v>20</v>
@@ -1911,8 +1917,8 @@
       <c r="F17" s="5">
         <v>0.5</v>
       </c>
-      <c r="G17" s="6">
-        <v>600</v>
+      <c r="G17" s="16">
+        <v>3500</v>
       </c>
       <c r="H17" s="11">
         <v>0</v>
@@ -1923,20 +1929,20 @@
       <c r="J17" s="6">
         <v>0</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="17">
+        <v>1.4128571428571426</v>
+      </c>
+      <c r="L17" s="6">
+        <v>1</v>
+      </c>
+      <c r="M17" s="6">
+        <v>1</v>
+      </c>
+      <c r="N17" s="6">
         <v>0.8</v>
       </c>
-      <c r="L17" s="6">
-        <v>1</v>
-      </c>
-      <c r="M17" s="6">
-        <v>1</v>
-      </c>
-      <c r="N17" s="6">
-        <v>0.9</v>
-      </c>
       <c r="O17" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P17" s="6">
         <v>20</v>
@@ -1979,8 +1985,8 @@
       <c r="F18" s="5">
         <v>0.5</v>
       </c>
-      <c r="G18" s="6">
-        <v>600</v>
+      <c r="G18" s="16">
+        <v>3500</v>
       </c>
       <c r="H18" s="11">
         <v>0</v>
@@ -1991,20 +1997,20 @@
       <c r="J18" s="6">
         <v>0</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="17">
+        <v>1.4128571428571426</v>
+      </c>
+      <c r="L18" s="6">
+        <v>1</v>
+      </c>
+      <c r="M18" s="6">
+        <v>1</v>
+      </c>
+      <c r="N18" s="6">
         <v>0.8</v>
       </c>
-      <c r="L18" s="6">
-        <v>1</v>
-      </c>
-      <c r="M18" s="6">
-        <v>1</v>
-      </c>
-      <c r="N18" s="6">
-        <v>0.9</v>
-      </c>
       <c r="O18" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P18" s="6">
         <v>20</v>
@@ -2047,8 +2053,8 @@
       <c r="F19" s="5">
         <v>0.5</v>
       </c>
-      <c r="G19" s="6">
-        <v>1500</v>
+      <c r="G19" s="16">
+        <v>3500</v>
       </c>
       <c r="H19" s="12">
         <v>1</v>
@@ -2059,20 +2065,20 @@
       <c r="J19" s="6">
         <v>0</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="17">
+        <v>1.3832350199334786</v>
+      </c>
+      <c r="L19" s="6">
+        <v>1</v>
+      </c>
+      <c r="M19" s="6">
+        <v>1</v>
+      </c>
+      <c r="N19" s="6">
         <v>0.8</v>
       </c>
-      <c r="L19" s="6">
-        <v>1</v>
-      </c>
-      <c r="M19" s="6">
-        <v>1</v>
-      </c>
-      <c r="N19" s="6">
-        <v>0.9</v>
-      </c>
       <c r="O19" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P19" s="6">
         <v>20</v>
@@ -2115,8 +2121,8 @@
       <c r="F20" s="5">
         <v>0.5</v>
       </c>
-      <c r="G20" s="6">
-        <v>2200</v>
+      <c r="G20" s="16">
+        <v>3500</v>
       </c>
       <c r="H20" s="12">
         <v>1</v>
@@ -2127,20 +2133,20 @@
       <c r="J20" s="6">
         <v>0</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="17">
+        <v>1.976050028476398</v>
+      </c>
+      <c r="L20" s="6">
+        <v>1</v>
+      </c>
+      <c r="M20" s="6">
+        <v>1</v>
+      </c>
+      <c r="N20" s="6">
         <v>0.8</v>
       </c>
-      <c r="L20" s="6">
-        <v>1</v>
-      </c>
-      <c r="M20" s="6">
-        <v>1</v>
-      </c>
-      <c r="N20" s="6">
-        <v>0.9</v>
-      </c>
       <c r="O20" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P20" s="6">
         <v>20</v>

--- a/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F2_relay_banshee.xlsx
+++ b/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F2_relay_banshee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="12135" windowWidth="28830" windowHeight="2505"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="relays" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -215,6 +215,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -545,7 +548,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -580,7 +583,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -792,7 +795,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,7 +898,7 @@
         <v>0.5</v>
       </c>
       <c r="F2" s="5">
-        <v>0.5</v>
+        <v>13</v>
       </c>
       <c r="G2" s="16">
         <v>1200</v>
@@ -910,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="17">
-        <v>3.4135813600798519</v>
+        <v>1.9712896934131849</v>
       </c>
       <c r="L2" s="6">
         <v>1</v>
@@ -919,7 +922,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O2" s="6">
         <v>1.2</v>
@@ -928,22 +931,22 @@
         <v>20</v>
       </c>
       <c r="Q2" s="6">
-        <v>1</v>
-      </c>
-      <c r="R2" s="6">
-        <v>0.7</v>
+        <v>0</v>
+      </c>
+      <c r="R2" s="17">
+        <v>1.9712896934131849</v>
       </c>
       <c r="S2" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T2" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U2" s="6">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="V2" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -963,7 +966,7 @@
         <v>0.5</v>
       </c>
       <c r="F3" s="5">
-        <v>0.5</v>
+        <v>13</v>
       </c>
       <c r="G3" s="16">
         <v>1200</v>
@@ -987,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O3" s="6">
         <v>1.2</v>
@@ -996,22 +999,22 @@
         <v>20</v>
       </c>
       <c r="Q3" s="6">
-        <v>1</v>
-      </c>
-      <c r="R3" s="6">
-        <v>0.7</v>
+        <v>0</v>
+      </c>
+      <c r="R3" s="17">
+        <v>1.7039851694832704</v>
       </c>
       <c r="S3" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T3" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U3" s="6">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="V3" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -1031,7 +1034,7 @@
         <v>0.5</v>
       </c>
       <c r="F4" s="5">
-        <v>0.5</v>
+        <v>13</v>
       </c>
       <c r="G4" s="16">
         <v>1200</v>
@@ -1055,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O4" s="6">
         <v>1.2</v>
@@ -1064,22 +1067,22 @@
         <v>20</v>
       </c>
       <c r="Q4" s="6">
-        <v>1</v>
-      </c>
-      <c r="R4" s="6">
-        <v>0.7</v>
+        <v>0</v>
+      </c>
+      <c r="R4" s="17">
+        <v>0.80187537387448016</v>
       </c>
       <c r="S4" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T4" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U4" s="6">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="V4" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -1099,7 +1102,7 @@
         <v>0.5</v>
       </c>
       <c r="F5" s="5">
-        <v>0.5</v>
+        <v>13</v>
       </c>
       <c r="G5" s="16">
         <v>1200</v>
@@ -1123,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O5" s="6">
         <v>1.2</v>
@@ -1132,22 +1135,22 @@
         <v>20</v>
       </c>
       <c r="Q5" s="6">
-        <v>1</v>
-      </c>
-      <c r="R5" s="6">
-        <v>0.7</v>
+        <v>0</v>
+      </c>
+      <c r="R5" s="17">
+        <v>0.99752525475971998</v>
       </c>
       <c r="S5" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T5" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U5" s="6">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="V5" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -1167,7 +1170,7 @@
         <v>0.5</v>
       </c>
       <c r="F6" s="5">
-        <v>0.5</v>
+        <v>13</v>
       </c>
       <c r="G6" s="16">
         <v>1200</v>
@@ -1191,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O6" s="6">
         <v>1.2</v>
@@ -1200,22 +1203,22 @@
         <v>20</v>
       </c>
       <c r="Q6" s="6">
-        <v>1</v>
-      </c>
-      <c r="R6" s="6">
-        <v>0.7</v>
+        <v>0</v>
+      </c>
+      <c r="R6" s="17">
+        <v>0.50117210867155004</v>
       </c>
       <c r="S6" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T6" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U6" s="6">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="V6" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -1235,7 +1238,7 @@
         <v>0.5</v>
       </c>
       <c r="F7" s="5">
-        <v>0.5</v>
+        <v>13</v>
       </c>
       <c r="G7" s="16">
         <v>1200</v>
@@ -1259,7 +1262,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O7" s="6">
         <v>1.2</v>
@@ -1268,22 +1271,22 @@
         <v>20</v>
       </c>
       <c r="Q7" s="6">
-        <v>1</v>
-      </c>
-      <c r="R7" s="6">
-        <v>0.7</v>
+        <v>0</v>
+      </c>
+      <c r="R7" s="17">
+        <v>0.10023442173431002</v>
       </c>
       <c r="S7" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T7" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U7" s="6">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="V7" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -1303,7 +1306,7 @@
         <v>0.5</v>
       </c>
       <c r="F8" s="5">
-        <v>0.5</v>
+        <v>13</v>
       </c>
       <c r="G8" s="16">
         <v>1200</v>
@@ -1327,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O8" s="6">
         <v>1.2</v>
@@ -1336,22 +1339,22 @@
         <v>20</v>
       </c>
       <c r="Q8" s="6">
-        <v>1</v>
-      </c>
-      <c r="R8" s="6">
-        <v>0.7</v>
+        <v>0</v>
+      </c>
+      <c r="R8" s="17">
+        <v>0.75175816300732523</v>
       </c>
       <c r="S8" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T8" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U8" s="6">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="V8" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -1371,7 +1374,7 @@
         <v>0.5</v>
       </c>
       <c r="F9" s="5">
-        <v>0.5</v>
+        <v>13</v>
       </c>
       <c r="G9" s="16">
         <v>1200</v>
@@ -1395,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O9" s="6">
         <v>1.2</v>
@@ -1404,22 +1407,22 @@
         <v>20</v>
       </c>
       <c r="Q9" s="6">
-        <v>1</v>
-      </c>
-      <c r="R9" s="6">
-        <v>0.7</v>
+        <v>0</v>
+      </c>
+      <c r="R9" s="17">
+        <v>0.66501683650647991</v>
       </c>
       <c r="S9" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T9" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U9" s="6">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="V9" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -1439,7 +1442,7 @@
         <v>0.5</v>
       </c>
       <c r="F10" s="5">
-        <v>0.5</v>
+        <v>13</v>
       </c>
       <c r="G10" s="16">
         <v>1200</v>
@@ -1463,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O10" s="6">
         <v>1.2</v>
@@ -1472,22 +1475,22 @@
         <v>20</v>
       </c>
       <c r="Q10" s="6">
-        <v>1</v>
-      </c>
-      <c r="R10" s="6">
-        <v>0.7</v>
+        <v>0</v>
+      </c>
+      <c r="R10" s="17">
+        <v>0.50117210867155004</v>
       </c>
       <c r="S10" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T10" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U10" s="6">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="V10" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -1507,7 +1510,7 @@
         <v>0.5</v>
       </c>
       <c r="F11" s="5">
-        <v>0.5</v>
+        <v>13</v>
       </c>
       <c r="G11" s="16">
         <v>1200</v>
@@ -1531,7 +1534,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O11" s="6">
         <v>1.2</v>
@@ -1540,22 +1543,22 @@
         <v>20</v>
       </c>
       <c r="Q11" s="6">
-        <v>1</v>
-      </c>
-      <c r="R11" s="6">
-        <v>0.7</v>
+        <v>0</v>
+      </c>
+      <c r="R11" s="17">
+        <v>0.20046884346862004</v>
       </c>
       <c r="S11" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T11" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U11" s="6">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="V11" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -1575,7 +1578,7 @@
         <v>0.5</v>
       </c>
       <c r="F12" s="5">
-        <v>0.5</v>
+        <v>13</v>
       </c>
       <c r="G12" s="16">
         <v>1200</v>
@@ -1599,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O12" s="6">
         <v>1.2</v>
@@ -1608,22 +1611,22 @@
         <v>20</v>
       </c>
       <c r="Q12" s="6">
-        <v>1</v>
-      </c>
-      <c r="R12" s="6">
-        <v>0.7</v>
+        <v>0</v>
+      </c>
+      <c r="R12" s="17">
+        <v>1.0023442173431001</v>
       </c>
       <c r="S12" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T12" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U12" s="6">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="V12" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -1643,7 +1646,7 @@
         <v>0.5</v>
       </c>
       <c r="F13" s="5">
-        <v>0.5</v>
+        <v>13</v>
       </c>
       <c r="G13" s="16">
         <v>3500</v>
@@ -1667,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O13" s="6">
         <v>1.2</v>
@@ -1676,22 +1679,22 @@
         <v>20</v>
       </c>
       <c r="Q13" s="6">
-        <v>1</v>
-      </c>
-      <c r="R13" s="6">
-        <v>0.7</v>
+        <v>0</v>
+      </c>
+      <c r="R13" s="17">
+        <v>0.79042001139055906</v>
       </c>
       <c r="S13" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T13" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U13" s="6">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="V13" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -1711,7 +1714,7 @@
         <v>0.5</v>
       </c>
       <c r="F14" s="5">
-        <v>0.5</v>
+        <v>13</v>
       </c>
       <c r="G14" s="16">
         <v>3500</v>
@@ -1735,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O14" s="6">
         <v>1.2</v>
@@ -1744,22 +1747,22 @@
         <v>20</v>
       </c>
       <c r="Q14" s="6">
-        <v>1</v>
-      </c>
-      <c r="R14" s="6">
-        <v>0.7</v>
+        <v>0</v>
+      </c>
+      <c r="R14" s="17">
+        <v>1.4128571428571426</v>
       </c>
       <c r="S14" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T14" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U14" s="6">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="V14" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -1779,7 +1782,7 @@
         <v>0.5</v>
       </c>
       <c r="F15" s="5">
-        <v>0.5</v>
+        <v>13</v>
       </c>
       <c r="G15" s="16">
         <v>1200</v>
@@ -1803,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O15" s="6">
         <v>1.2</v>
@@ -1812,22 +1815,22 @@
         <v>20</v>
       </c>
       <c r="Q15" s="6">
-        <v>1</v>
-      </c>
-      <c r="R15" s="6">
-        <v>0.7</v>
+        <v>0</v>
+      </c>
+      <c r="R15" s="17">
+        <v>0.40093768693724008</v>
       </c>
       <c r="S15" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T15" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U15" s="6">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="V15" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -1847,7 +1850,7 @@
         <v>0.5</v>
       </c>
       <c r="F16" s="5">
-        <v>0.5</v>
+        <v>13</v>
       </c>
       <c r="G16" s="16">
         <v>1200</v>
@@ -1871,7 +1874,7 @@
         <v>1</v>
       </c>
       <c r="N16" s="6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O16" s="6">
         <v>1.2</v>
@@ -1880,22 +1883,22 @@
         <v>20</v>
       </c>
       <c r="Q16" s="6">
-        <v>1</v>
-      </c>
-      <c r="R16" s="6">
-        <v>0.7</v>
+        <v>0</v>
+      </c>
+      <c r="R16" s="17">
+        <v>0.40093768693724008</v>
       </c>
       <c r="S16" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T16" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U16" s="6">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="V16" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -1915,7 +1918,7 @@
         <v>0.5</v>
       </c>
       <c r="F17" s="5">
-        <v>0.5</v>
+        <v>13</v>
       </c>
       <c r="G17" s="16">
         <v>3500</v>
@@ -1939,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="N17" s="6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O17" s="6">
         <v>1.2</v>
@@ -1948,22 +1951,22 @@
         <v>20</v>
       </c>
       <c r="Q17" s="6">
-        <v>1</v>
-      </c>
-      <c r="R17" s="6">
-        <v>0.7</v>
+        <v>0</v>
+      </c>
+      <c r="R17" s="17">
+        <v>1.4128571428571426</v>
       </c>
       <c r="S17" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T17" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U17" s="6">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="V17" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -1983,7 +1986,7 @@
         <v>0.5</v>
       </c>
       <c r="F18" s="5">
-        <v>0.5</v>
+        <v>13</v>
       </c>
       <c r="G18" s="16">
         <v>3500</v>
@@ -2007,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="N18" s="6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O18" s="6">
         <v>1.2</v>
@@ -2016,22 +2019,22 @@
         <v>20</v>
       </c>
       <c r="Q18" s="6">
-        <v>1</v>
-      </c>
-      <c r="R18" s="6">
-        <v>0.7</v>
+        <v>0</v>
+      </c>
+      <c r="R18" s="17">
+        <v>1.4128571428571426</v>
       </c>
       <c r="S18" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T18" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U18" s="6">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="V18" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -2051,7 +2054,7 @@
         <v>0.5</v>
       </c>
       <c r="F19" s="5">
-        <v>0.5</v>
+        <v>13</v>
       </c>
       <c r="G19" s="16">
         <v>3500</v>
@@ -2075,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O19" s="6">
         <v>1.2</v>
@@ -2084,22 +2087,22 @@
         <v>20</v>
       </c>
       <c r="Q19" s="6">
-        <v>1</v>
-      </c>
-      <c r="R19" s="6">
-        <v>0.7</v>
+        <v>0</v>
+      </c>
+      <c r="R19" s="17">
+        <v>1.3832350199334786</v>
       </c>
       <c r="S19" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T19" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U19" s="6">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="V19" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -2119,7 +2122,7 @@
         <v>0.5</v>
       </c>
       <c r="F20" s="5">
-        <v>0.5</v>
+        <v>13</v>
       </c>
       <c r="G20" s="16">
         <v>3500</v>
@@ -2143,7 +2146,7 @@
         <v>1</v>
       </c>
       <c r="N20" s="6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O20" s="6">
         <v>1.2</v>
@@ -2152,22 +2155,22 @@
         <v>20</v>
       </c>
       <c r="Q20" s="6">
-        <v>1</v>
-      </c>
-      <c r="R20" s="6">
-        <v>0.7</v>
+        <v>0</v>
+      </c>
+      <c r="R20" s="17">
+        <v>1.976050028476398</v>
       </c>
       <c r="S20" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T20" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U20" s="6">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="V20" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">

--- a/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F2_relay_banshee.xlsx
+++ b/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F2_relay_banshee.xlsx
@@ -795,7 +795,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,7 +898,7 @@
         <v>0.5</v>
       </c>
       <c r="F2" s="5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G2" s="16">
         <v>1200</v>
@@ -966,7 +966,7 @@
         <v>0.5</v>
       </c>
       <c r="F3" s="5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G3" s="16">
         <v>1200</v>
@@ -1034,7 +1034,7 @@
         <v>0.5</v>
       </c>
       <c r="F4" s="5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G4" s="16">
         <v>1200</v>
@@ -1102,7 +1102,7 @@
         <v>0.5</v>
       </c>
       <c r="F5" s="5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G5" s="16">
         <v>1200</v>
@@ -1170,7 +1170,7 @@
         <v>0.5</v>
       </c>
       <c r="F6" s="5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G6" s="16">
         <v>1200</v>
@@ -1238,7 +1238,7 @@
         <v>0.5</v>
       </c>
       <c r="F7" s="5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G7" s="16">
         <v>1200</v>
@@ -1306,7 +1306,7 @@
         <v>0.5</v>
       </c>
       <c r="F8" s="5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G8" s="16">
         <v>1200</v>
@@ -1374,7 +1374,7 @@
         <v>0.5</v>
       </c>
       <c r="F9" s="5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G9" s="16">
         <v>1200</v>
@@ -1442,7 +1442,7 @@
         <v>0.5</v>
       </c>
       <c r="F10" s="5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G10" s="16">
         <v>1200</v>
@@ -1510,7 +1510,7 @@
         <v>0.5</v>
       </c>
       <c r="F11" s="5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G11" s="16">
         <v>1200</v>
@@ -1578,7 +1578,7 @@
         <v>0.5</v>
       </c>
       <c r="F12" s="5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G12" s="16">
         <v>1200</v>
@@ -1637,7 +1637,7 @@
         <v>480</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13" s="5">
         <v>12</v>
@@ -1646,7 +1646,7 @@
         <v>0.5</v>
       </c>
       <c r="F13" s="5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G13" s="16">
         <v>3500</v>
@@ -1705,7 +1705,7 @@
         <v>480</v>
       </c>
       <c r="C14" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" s="5">
         <v>12</v>
@@ -1714,7 +1714,7 @@
         <v>0.5</v>
       </c>
       <c r="F14" s="5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G14" s="16">
         <v>3500</v>
@@ -1782,7 +1782,7 @@
         <v>0.5</v>
       </c>
       <c r="F15" s="5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G15" s="16">
         <v>1200</v>
@@ -1850,7 +1850,7 @@
         <v>0.5</v>
       </c>
       <c r="F16" s="5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G16" s="16">
         <v>1200</v>
@@ -1909,7 +1909,7 @@
         <v>480</v>
       </c>
       <c r="C17" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D17" s="5">
         <v>12</v>
@@ -1918,7 +1918,7 @@
         <v>0.5</v>
       </c>
       <c r="F17" s="5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G17" s="16">
         <v>3500</v>
@@ -1977,7 +1977,7 @@
         <v>480</v>
       </c>
       <c r="C18" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D18" s="5">
         <v>12</v>
@@ -1986,7 +1986,7 @@
         <v>0.5</v>
       </c>
       <c r="F18" s="5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G18" s="16">
         <v>3500</v>
@@ -2045,7 +2045,7 @@
         <v>480</v>
       </c>
       <c r="C19" s="14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D19" s="5">
         <v>12</v>
@@ -2054,7 +2054,7 @@
         <v>0.5</v>
       </c>
       <c r="F19" s="5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G19" s="16">
         <v>3500</v>
@@ -2113,7 +2113,7 @@
         <v>480</v>
       </c>
       <c r="C20" s="14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D20" s="5">
         <v>12</v>
@@ -2122,7 +2122,7 @@
         <v>0.5</v>
       </c>
       <c r="F20" s="5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G20" s="16">
         <v>3500</v>

--- a/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F2_relay_banshee.xlsx
+++ b/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F2_relay_banshee.xlsx
@@ -152,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -191,9 +191,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -795,7 +792,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,7 +886,7 @@
         <v>13800</v>
       </c>
       <c r="C2" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" s="5">
         <v>12</v>
@@ -900,7 +897,7 @@
       <c r="F2" s="5">
         <v>2</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="15">
         <v>1200</v>
       </c>
       <c r="H2" s="10">
@@ -912,7 +909,7 @@
       <c r="J2" s="6">
         <v>0</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="16">
         <v>1.9712896934131849</v>
       </c>
       <c r="L2" s="6">
@@ -933,7 +930,7 @@
       <c r="Q2" s="6">
         <v>0</v>
       </c>
-      <c r="R2" s="17">
+      <c r="R2" s="16">
         <v>1.9712896934131849</v>
       </c>
       <c r="S2" s="6">
@@ -950,14 +947,14 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
       <c r="B3" s="6">
         <v>13800</v>
       </c>
       <c r="C3" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3" s="5">
         <v>12</v>
@@ -968,7 +965,7 @@
       <c r="F3" s="5">
         <v>2</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="15">
         <v>1200</v>
       </c>
       <c r="H3" s="10">
@@ -980,7 +977,7 @@
       <c r="J3" s="6">
         <v>0</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="16">
         <v>1.7039851694832704</v>
       </c>
       <c r="L3" s="6">
@@ -1001,7 +998,7 @@
       <c r="Q3" s="6">
         <v>0</v>
       </c>
-      <c r="R3" s="17">
+      <c r="R3" s="16">
         <v>1.7039851694832704</v>
       </c>
       <c r="S3" s="6">
@@ -1018,14 +1015,14 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
       <c r="B4" s="6">
         <v>13800</v>
       </c>
       <c r="C4" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5">
         <v>12</v>
@@ -1036,7 +1033,7 @@
       <c r="F4" s="5">
         <v>2</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="15">
         <v>1200</v>
       </c>
       <c r="H4" s="10">
@@ -1048,7 +1045,7 @@
       <c r="J4" s="6">
         <v>0</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="16">
         <v>0.80187537387448016</v>
       </c>
       <c r="L4" s="6">
@@ -1069,7 +1066,7 @@
       <c r="Q4" s="6">
         <v>0</v>
       </c>
-      <c r="R4" s="17">
+      <c r="R4" s="16">
         <v>0.80187537387448016</v>
       </c>
       <c r="S4" s="6">
@@ -1086,14 +1083,14 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
       <c r="B5" s="6">
         <v>4160</v>
       </c>
       <c r="C5" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5" s="5">
         <v>12</v>
@@ -1104,7 +1101,7 @@
       <c r="F5" s="5">
         <v>2</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <v>1200</v>
       </c>
       <c r="H5" s="10">
@@ -1116,7 +1113,7 @@
       <c r="J5" s="6">
         <v>0</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="16">
         <v>0.99752525475971998</v>
       </c>
       <c r="L5" s="6">
@@ -1137,7 +1134,7 @@
       <c r="Q5" s="6">
         <v>0</v>
       </c>
-      <c r="R5" s="17">
+      <c r="R5" s="16">
         <v>0.99752525475971998</v>
       </c>
       <c r="S5" s="6">
@@ -1154,14 +1151,14 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
       <c r="B6" s="6">
         <v>13800</v>
       </c>
       <c r="C6" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D6" s="5">
         <v>12</v>
@@ -1172,7 +1169,7 @@
       <c r="F6" s="5">
         <v>2</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>1200</v>
       </c>
       <c r="H6" s="10">
@@ -1184,7 +1181,7 @@
       <c r="J6" s="6">
         <v>0</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="16">
         <v>0.50117210867155004</v>
       </c>
       <c r="L6" s="6">
@@ -1205,7 +1202,7 @@
       <c r="Q6" s="6">
         <v>0</v>
       </c>
-      <c r="R6" s="17">
+      <c r="R6" s="16">
         <v>0.50117210867155004</v>
       </c>
       <c r="S6" s="6">
@@ -1222,14 +1219,14 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
       <c r="B7" s="6">
         <v>13800</v>
       </c>
       <c r="C7" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D7" s="5">
         <v>12</v>
@@ -1240,7 +1237,7 @@
       <c r="F7" s="5">
         <v>2</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <v>1200</v>
       </c>
       <c r="H7" s="10">
@@ -1252,7 +1249,7 @@
       <c r="J7" s="6">
         <v>0</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="16">
         <v>0.10023442173431002</v>
       </c>
       <c r="L7" s="6">
@@ -1273,7 +1270,7 @@
       <c r="Q7" s="6">
         <v>0</v>
       </c>
-      <c r="R7" s="17">
+      <c r="R7" s="16">
         <v>0.10023442173431002</v>
       </c>
       <c r="S7" s="6">
@@ -1290,14 +1287,14 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="14">
         <v>7</v>
       </c>
       <c r="B8" s="6">
         <v>13800</v>
       </c>
       <c r="C8" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D8" s="5">
         <v>12</v>
@@ -1308,7 +1305,7 @@
       <c r="F8" s="5">
         <v>2</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <v>1200</v>
       </c>
       <c r="H8" s="10">
@@ -1320,7 +1317,7 @@
       <c r="J8" s="6">
         <v>0</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="16">
         <v>0.75175816300732523</v>
       </c>
       <c r="L8" s="6">
@@ -1341,7 +1338,7 @@
       <c r="Q8" s="6">
         <v>0</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R8" s="16">
         <v>0.75175816300732523</v>
       </c>
       <c r="S8" s="6">
@@ -1358,14 +1355,14 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
       <c r="B9" s="6">
         <v>4160</v>
       </c>
       <c r="C9" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D9" s="5">
         <v>12</v>
@@ -1376,7 +1373,7 @@
       <c r="F9" s="5">
         <v>2</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="15">
         <v>1200</v>
       </c>
       <c r="H9" s="10">
@@ -1388,7 +1385,7 @@
       <c r="J9" s="6">
         <v>0</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="16">
         <v>0.66501683650647991</v>
       </c>
       <c r="L9" s="6">
@@ -1409,7 +1406,7 @@
       <c r="Q9" s="6">
         <v>0</v>
       </c>
-      <c r="R9" s="17">
+      <c r="R9" s="16">
         <v>0.66501683650647991</v>
       </c>
       <c r="S9" s="6">
@@ -1426,14 +1423,14 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
       <c r="B10" s="6">
         <v>13800</v>
       </c>
       <c r="C10" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D10" s="5">
         <v>12</v>
@@ -1444,7 +1441,7 @@
       <c r="F10" s="5">
         <v>2</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="15">
         <v>1200</v>
       </c>
       <c r="H10" s="10">
@@ -1456,7 +1453,7 @@
       <c r="J10" s="6">
         <v>0</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="16">
         <v>0.50117210867155004</v>
       </c>
       <c r="L10" s="6">
@@ -1477,7 +1474,7 @@
       <c r="Q10" s="6">
         <v>0</v>
       </c>
-      <c r="R10" s="17">
+      <c r="R10" s="16">
         <v>0.50117210867155004</v>
       </c>
       <c r="S10" s="6">
@@ -1494,14 +1491,14 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="14">
         <v>10</v>
       </c>
       <c r="B11" s="6">
         <v>13800</v>
       </c>
       <c r="C11" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D11" s="5">
         <v>12</v>
@@ -1512,7 +1509,7 @@
       <c r="F11" s="5">
         <v>2</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>1200</v>
       </c>
       <c r="H11" s="10">
@@ -1524,7 +1521,7 @@
       <c r="J11" s="6">
         <v>0</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="16">
         <v>0.20046884346862004</v>
       </c>
       <c r="L11" s="6">
@@ -1545,7 +1542,7 @@
       <c r="Q11" s="6">
         <v>0</v>
       </c>
-      <c r="R11" s="17">
+      <c r="R11" s="16">
         <v>0.20046884346862004</v>
       </c>
       <c r="S11" s="6">
@@ -1562,14 +1559,14 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
       <c r="B12" s="6">
         <v>13800</v>
       </c>
       <c r="C12" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D12" s="5">
         <v>12</v>
@@ -1580,7 +1577,7 @@
       <c r="F12" s="5">
         <v>2</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="15">
         <v>1200</v>
       </c>
       <c r="H12" s="10">
@@ -1592,7 +1589,7 @@
       <c r="J12" s="6">
         <v>0</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="16">
         <v>1.0023442173431001</v>
       </c>
       <c r="L12" s="6">
@@ -1613,7 +1610,7 @@
       <c r="Q12" s="6">
         <v>0</v>
       </c>
-      <c r="R12" s="17">
+      <c r="R12" s="16">
         <v>1.0023442173431001</v>
       </c>
       <c r="S12" s="6">
@@ -1630,7 +1627,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
       <c r="B13" s="6">
@@ -1648,7 +1645,7 @@
       <c r="F13" s="5">
         <v>2</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="15">
         <v>3500</v>
       </c>
       <c r="H13" s="10">
@@ -1660,7 +1657,7 @@
       <c r="J13" s="6">
         <v>0</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="16">
         <v>0.79042001139055906</v>
       </c>
       <c r="L13" s="6">
@@ -1681,7 +1678,7 @@
       <c r="Q13" s="6">
         <v>0</v>
       </c>
-      <c r="R13" s="17">
+      <c r="R13" s="16">
         <v>0.79042001139055906</v>
       </c>
       <c r="S13" s="6">
@@ -1698,7 +1695,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
       <c r="B14" s="6">
@@ -1716,7 +1713,7 @@
       <c r="F14" s="5">
         <v>2</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <v>3500</v>
       </c>
       <c r="H14" s="11">
@@ -1728,7 +1725,7 @@
       <c r="J14" s="6">
         <v>0</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="16">
         <v>1.4128571428571426</v>
       </c>
       <c r="L14" s="6">
@@ -1749,7 +1746,7 @@
       <c r="Q14" s="6">
         <v>0</v>
       </c>
-      <c r="R14" s="17">
+      <c r="R14" s="16">
         <v>1.4128571428571426</v>
       </c>
       <c r="S14" s="6">
@@ -1766,14 +1763,14 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="A15" s="14">
         <v>14</v>
       </c>
       <c r="B15" s="6">
         <v>13800</v>
       </c>
       <c r="C15" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" s="5">
         <v>12</v>
@@ -1784,7 +1781,7 @@
       <c r="F15" s="5">
         <v>2</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="15">
         <v>1200</v>
       </c>
       <c r="H15" s="10">
@@ -1796,7 +1793,7 @@
       <c r="J15" s="6">
         <v>0</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="16">
         <v>0.40093768693724008</v>
       </c>
       <c r="L15" s="6">
@@ -1817,7 +1814,7 @@
       <c r="Q15" s="6">
         <v>0</v>
       </c>
-      <c r="R15" s="17">
+      <c r="R15" s="16">
         <v>0.40093768693724008</v>
       </c>
       <c r="S15" s="6">
@@ -1834,14 +1831,14 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="14">
         <v>15</v>
       </c>
       <c r="B16" s="6">
         <v>13800</v>
       </c>
       <c r="C16" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D16" s="5">
         <v>12</v>
@@ -1852,7 +1849,7 @@
       <c r="F16" s="5">
         <v>2</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="15">
         <v>1200</v>
       </c>
       <c r="H16" s="10">
@@ -1864,7 +1861,7 @@
       <c r="J16" s="6">
         <v>0</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="16">
         <v>0.40093768693724008</v>
       </c>
       <c r="L16" s="6">
@@ -1885,7 +1882,7 @@
       <c r="Q16" s="6">
         <v>0</v>
       </c>
-      <c r="R16" s="17">
+      <c r="R16" s="16">
         <v>0.40093768693724008</v>
       </c>
       <c r="S16" s="6">
@@ -1902,7 +1899,7 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="A17" s="14">
         <v>16</v>
       </c>
       <c r="B17" s="6">
@@ -1920,7 +1917,7 @@
       <c r="F17" s="5">
         <v>2</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="15">
         <v>3500</v>
       </c>
       <c r="H17" s="11">
@@ -1932,7 +1929,7 @@
       <c r="J17" s="6">
         <v>0</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="16">
         <v>1.4128571428571426</v>
       </c>
       <c r="L17" s="6">
@@ -1953,7 +1950,7 @@
       <c r="Q17" s="6">
         <v>0</v>
       </c>
-      <c r="R17" s="17">
+      <c r="R17" s="16">
         <v>1.4128571428571426</v>
       </c>
       <c r="S17" s="6">
@@ -1970,7 +1967,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="A18" s="14">
         <v>17</v>
       </c>
       <c r="B18" s="6">
@@ -1988,7 +1985,7 @@
       <c r="F18" s="5">
         <v>2</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="15">
         <v>3500</v>
       </c>
       <c r="H18" s="11">
@@ -2000,7 +1997,7 @@
       <c r="J18" s="6">
         <v>0</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="16">
         <v>1.4128571428571426</v>
       </c>
       <c r="L18" s="6">
@@ -2021,7 +2018,7 @@
       <c r="Q18" s="6">
         <v>0</v>
       </c>
-      <c r="R18" s="17">
+      <c r="R18" s="16">
         <v>1.4128571428571426</v>
       </c>
       <c r="S18" s="6">
@@ -2038,13 +2035,13 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+      <c r="A19" s="14">
         <v>18</v>
       </c>
       <c r="B19" s="13">
         <v>480</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="5">
         <v>10</v>
       </c>
       <c r="D19" s="5">
@@ -2056,7 +2053,7 @@
       <c r="F19" s="5">
         <v>2</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="15">
         <v>3500</v>
       </c>
       <c r="H19" s="12">
@@ -2068,7 +2065,7 @@
       <c r="J19" s="6">
         <v>0</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="16">
         <v>1.3832350199334786</v>
       </c>
       <c r="L19" s="6">
@@ -2089,7 +2086,7 @@
       <c r="Q19" s="6">
         <v>0</v>
       </c>
-      <c r="R19" s="17">
+      <c r="R19" s="16">
         <v>1.3832350199334786</v>
       </c>
       <c r="S19" s="6">
@@ -2106,13 +2103,13 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+      <c r="A20" s="14">
         <v>19</v>
       </c>
       <c r="B20" s="13">
         <v>480</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="5">
         <v>10</v>
       </c>
       <c r="D20" s="5">
@@ -2124,7 +2121,7 @@
       <c r="F20" s="5">
         <v>2</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="15">
         <v>3500</v>
       </c>
       <c r="H20" s="12">
@@ -2136,7 +2133,7 @@
       <c r="J20" s="6">
         <v>0</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="16">
         <v>1.976050028476398</v>
       </c>
       <c r="L20" s="6">
@@ -2157,7 +2154,7 @@
       <c r="Q20" s="6">
         <v>0</v>
       </c>
-      <c r="R20" s="17">
+      <c r="R20" s="16">
         <v>1.976050028476398</v>
       </c>
       <c r="S20" s="6">

--- a/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F2_relay_banshee.xlsx
+++ b/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F2_relay_banshee.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="12135" windowWidth="28830" windowHeight="2505"/>
+    <workbookView xWindow="-12" yWindow="12132" windowWidth="23256" windowHeight="2508"/>
   </bookViews>
   <sheets>
     <sheet name="relays" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>VRMSLL</t>
   </si>
@@ -60,11 +60,34 @@
   <si>
     <t>CB Initial State [closed=1; open=0]</t>
   </si>
+  <si>
+    <t>81U Trip Pickup [Hz]</t>
+  </si>
+  <si>
+    <t>81U Trip Delay [Sec]</t>
+  </si>
+  <si>
+    <t>81O Trip Pickup [Hz]</t>
+  </si>
+  <si>
+    <t>81O Trip Delay [Sec]</t>
+  </si>
+  <si>
+    <t>81RFRP
+[Hz/Sec]</t>
+  </si>
+  <si>
+    <t>81RFDFP
+[Hz]</t>
+  </si>
+  <si>
+    <t>81RF Trip Delay [Sec]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -502,6 +525,44 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>522513</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>313790</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>84043</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13639799" y="4321629"/>
+          <a:ext cx="3263820" cy="2598643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -548,7 +609,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -583,7 +644,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -792,28 +853,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:AJ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1:AJ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="16" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="6" customWidth="1"/>
-    <col min="9" max="20" width="12.28515625" style="6" customWidth="1"/>
-    <col min="21" max="22" width="11.28515625" style="6" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="6"/>
+    <col min="3" max="3" width="12.5546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" style="6" customWidth="1"/>
+    <col min="9" max="15" width="12.33203125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="13" style="6" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" style="6" customWidth="1"/>
+    <col min="20" max="21" width="9.109375" style="6"/>
+    <col min="22" max="22" width="11.109375" style="6" customWidth="1"/>
+    <col min="23" max="27" width="12.33203125" style="6" customWidth="1"/>
+    <col min="28" max="29" width="11.33203125" style="6" customWidth="1"/>
+    <col min="30" max="30" width="13.44140625" style="6" customWidth="1"/>
+    <col min="31" max="31" width="13" style="6" customWidth="1"/>
+    <col min="32" max="32" width="11.6640625" style="6" customWidth="1"/>
+    <col min="33" max="33" width="12.109375" style="6" customWidth="1"/>
+    <col min="34" max="35" width="9.109375" style="6"/>
+    <col min="36" max="36" width="11.109375" style="6" customWidth="1"/>
+    <col min="37" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -859,29 +933,71 @@
       <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="AD1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -928,28 +1044,70 @@
         <v>1.2</v>
       </c>
       <c r="P2" s="6">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="Q2" s="6">
-        <v>0</v>
-      </c>
-      <c r="R2" s="17">
+        <v>2</v>
+      </c>
+      <c r="R2" s="6">
+        <v>66</v>
+      </c>
+      <c r="S2" s="6">
+        <v>2</v>
+      </c>
+      <c r="T2" s="6">
+        <v>2</v>
+      </c>
+      <c r="U2" s="6">
+        <v>57</v>
+      </c>
+      <c r="V2" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W2" s="6">
+        <v>20</v>
+      </c>
+      <c r="X2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="17">
         <v>1.9712896934131849</v>
       </c>
-      <c r="S2" s="6">
-        <v>1</v>
-      </c>
-      <c r="T2" s="6">
-        <v>1</v>
-      </c>
-      <c r="U2" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="V2" s="6">
-        <v>1.2</v>
+      <c r="Z2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AC2" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="AD2" s="6">
+        <v>54</v>
+      </c>
+      <c r="AE2" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>66</v>
+      </c>
+      <c r="AG2" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="6">
+        <v>57</v>
+      </c>
+      <c r="AJ2" s="6">
+        <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -996,28 +1154,70 @@
         <v>1.2</v>
       </c>
       <c r="P3" s="6">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="Q3" s="6">
-        <v>0</v>
-      </c>
-      <c r="R3" s="17">
+        <v>2</v>
+      </c>
+      <c r="R3" s="6">
+        <v>66</v>
+      </c>
+      <c r="S3" s="6">
+        <v>2</v>
+      </c>
+      <c r="T3" s="6">
+        <v>2</v>
+      </c>
+      <c r="U3" s="6">
+        <v>57</v>
+      </c>
+      <c r="V3" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W3" s="6">
+        <v>20</v>
+      </c>
+      <c r="X3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="17">
         <v>1.7039851694832704</v>
       </c>
-      <c r="S3" s="6">
-        <v>1</v>
-      </c>
-      <c r="T3" s="6">
-        <v>1</v>
-      </c>
-      <c r="U3" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="V3" s="6">
-        <v>1.2</v>
+      <c r="Z3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AC3" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="AD3" s="6">
+        <v>54</v>
+      </c>
+      <c r="AE3" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>66</v>
+      </c>
+      <c r="AG3" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="6">
+        <v>57</v>
+      </c>
+      <c r="AJ3" s="6">
+        <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -1064,28 +1264,70 @@
         <v>1.2</v>
       </c>
       <c r="P4" s="6">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="Q4" s="6">
-        <v>0</v>
-      </c>
-      <c r="R4" s="17">
+        <v>2</v>
+      </c>
+      <c r="R4" s="6">
+        <v>66</v>
+      </c>
+      <c r="S4" s="6">
+        <v>2</v>
+      </c>
+      <c r="T4" s="6">
+        <v>2</v>
+      </c>
+      <c r="U4" s="6">
+        <v>57</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W4" s="6">
+        <v>20</v>
+      </c>
+      <c r="X4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="17">
         <v>0.80187537387448016</v>
       </c>
-      <c r="S4" s="6">
-        <v>1</v>
-      </c>
-      <c r="T4" s="6">
-        <v>1</v>
-      </c>
-      <c r="U4" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="V4" s="6">
-        <v>1.2</v>
+      <c r="Z4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>54</v>
+      </c>
+      <c r="AE4" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>66</v>
+      </c>
+      <c r="AG4" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="6">
+        <v>57</v>
+      </c>
+      <c r="AJ4" s="6">
+        <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -1132,28 +1374,70 @@
         <v>1.2</v>
       </c>
       <c r="P5" s="6">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="6">
-        <v>0</v>
-      </c>
-      <c r="R5" s="17">
+        <v>2</v>
+      </c>
+      <c r="R5" s="6">
+        <v>66</v>
+      </c>
+      <c r="S5" s="6">
+        <v>2</v>
+      </c>
+      <c r="T5" s="6">
+        <v>2</v>
+      </c>
+      <c r="U5" s="6">
+        <v>57</v>
+      </c>
+      <c r="V5" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W5" s="6">
+        <v>20</v>
+      </c>
+      <c r="X5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="17">
         <v>0.99752525475971998</v>
       </c>
-      <c r="S5" s="6">
-        <v>1</v>
-      </c>
-      <c r="T5" s="6">
-        <v>1</v>
-      </c>
-      <c r="U5" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="V5" s="6">
-        <v>1.2</v>
+      <c r="Z5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>54</v>
+      </c>
+      <c r="AE5" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>66</v>
+      </c>
+      <c r="AG5" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI5" s="6">
+        <v>57</v>
+      </c>
+      <c r="AJ5" s="6">
+        <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -1200,28 +1484,70 @@
         <v>1.2</v>
       </c>
       <c r="P6" s="6">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="Q6" s="6">
-        <v>0</v>
-      </c>
-      <c r="R6" s="17">
+        <v>2</v>
+      </c>
+      <c r="R6" s="6">
+        <v>66</v>
+      </c>
+      <c r="S6" s="6">
+        <v>2</v>
+      </c>
+      <c r="T6" s="6">
+        <v>2</v>
+      </c>
+      <c r="U6" s="6">
+        <v>57</v>
+      </c>
+      <c r="V6" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W6" s="6">
+        <v>20</v>
+      </c>
+      <c r="X6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="17">
         <v>0.50117210867155004</v>
       </c>
-      <c r="S6" s="6">
-        <v>1</v>
-      </c>
-      <c r="T6" s="6">
-        <v>1</v>
-      </c>
-      <c r="U6" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="6">
-        <v>1.2</v>
+      <c r="Z6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AC6" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="AD6" s="6">
+        <v>54</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>66</v>
+      </c>
+      <c r="AG6" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH6" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI6" s="6">
+        <v>57</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -1268,28 +1594,70 @@
         <v>1.2</v>
       </c>
       <c r="P7" s="6">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="Q7" s="6">
-        <v>0</v>
-      </c>
-      <c r="R7" s="17">
+        <v>2</v>
+      </c>
+      <c r="R7" s="6">
+        <v>66</v>
+      </c>
+      <c r="S7" s="6">
+        <v>2</v>
+      </c>
+      <c r="T7" s="6">
+        <v>2</v>
+      </c>
+      <c r="U7" s="6">
+        <v>57</v>
+      </c>
+      <c r="V7" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W7" s="6">
+        <v>20</v>
+      </c>
+      <c r="X7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="17">
         <v>0.10023442173431002</v>
       </c>
-      <c r="S7" s="6">
-        <v>1</v>
-      </c>
-      <c r="T7" s="6">
-        <v>1</v>
-      </c>
-      <c r="U7" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="V7" s="6">
-        <v>1.2</v>
+      <c r="Z7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AC7" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="AD7" s="6">
+        <v>54</v>
+      </c>
+      <c r="AE7" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="6">
+        <v>66</v>
+      </c>
+      <c r="AG7" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH7" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI7" s="6">
+        <v>57</v>
+      </c>
+      <c r="AJ7" s="6">
+        <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -1336,28 +1704,70 @@
         <v>1.2</v>
       </c>
       <c r="P8" s="6">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="6">
-        <v>0</v>
-      </c>
-      <c r="R8" s="17">
+        <v>2</v>
+      </c>
+      <c r="R8" s="6">
+        <v>66</v>
+      </c>
+      <c r="S8" s="6">
+        <v>2</v>
+      </c>
+      <c r="T8" s="6">
+        <v>2</v>
+      </c>
+      <c r="U8" s="6">
+        <v>57</v>
+      </c>
+      <c r="V8" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W8" s="6">
+        <v>20</v>
+      </c>
+      <c r="X8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="17">
         <v>0.75175816300732523</v>
       </c>
-      <c r="S8" s="6">
-        <v>1</v>
-      </c>
-      <c r="T8" s="6">
-        <v>1</v>
-      </c>
-      <c r="U8" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="V8" s="6">
-        <v>1.2</v>
+      <c r="Z8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AC8" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="AD8" s="6">
+        <v>54</v>
+      </c>
+      <c r="AE8" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="6">
+        <v>66</v>
+      </c>
+      <c r="AG8" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH8" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI8" s="6">
+        <v>57</v>
+      </c>
+      <c r="AJ8" s="6">
+        <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -1404,28 +1814,70 @@
         <v>1.2</v>
       </c>
       <c r="P9" s="6">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="6">
-        <v>0</v>
-      </c>
-      <c r="R9" s="17">
+        <v>2</v>
+      </c>
+      <c r="R9" s="6">
+        <v>66</v>
+      </c>
+      <c r="S9" s="6">
+        <v>2</v>
+      </c>
+      <c r="T9" s="6">
+        <v>2</v>
+      </c>
+      <c r="U9" s="6">
+        <v>57</v>
+      </c>
+      <c r="V9" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W9" s="6">
+        <v>20</v>
+      </c>
+      <c r="X9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="17">
         <v>0.66501683650647991</v>
       </c>
-      <c r="S9" s="6">
-        <v>1</v>
-      </c>
-      <c r="T9" s="6">
-        <v>1</v>
-      </c>
-      <c r="U9" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="V9" s="6">
-        <v>1.2</v>
+      <c r="Z9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AC9" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="AD9" s="6">
+        <v>54</v>
+      </c>
+      <c r="AE9" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF9" s="6">
+        <v>66</v>
+      </c>
+      <c r="AG9" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH9" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI9" s="6">
+        <v>57</v>
+      </c>
+      <c r="AJ9" s="6">
+        <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -1472,28 +1924,70 @@
         <v>1.2</v>
       </c>
       <c r="P10" s="6">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="6">
-        <v>0</v>
-      </c>
-      <c r="R10" s="17">
+        <v>2</v>
+      </c>
+      <c r="R10" s="6">
+        <v>66</v>
+      </c>
+      <c r="S10" s="6">
+        <v>2</v>
+      </c>
+      <c r="T10" s="6">
+        <v>2</v>
+      </c>
+      <c r="U10" s="6">
+        <v>57</v>
+      </c>
+      <c r="V10" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W10" s="6">
+        <v>20</v>
+      </c>
+      <c r="X10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="17">
         <v>0.50117210867155004</v>
       </c>
-      <c r="S10" s="6">
-        <v>1</v>
-      </c>
-      <c r="T10" s="6">
-        <v>1</v>
-      </c>
-      <c r="U10" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="V10" s="6">
-        <v>1.2</v>
+      <c r="Z10" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AC10" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="AD10" s="6">
+        <v>54</v>
+      </c>
+      <c r="AE10" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF10" s="6">
+        <v>66</v>
+      </c>
+      <c r="AG10" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH10" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI10" s="6">
+        <v>57</v>
+      </c>
+      <c r="AJ10" s="6">
+        <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -1540,28 +2034,70 @@
         <v>1.2</v>
       </c>
       <c r="P11" s="6">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="6">
-        <v>0</v>
-      </c>
-      <c r="R11" s="17">
+        <v>2</v>
+      </c>
+      <c r="R11" s="6">
+        <v>66</v>
+      </c>
+      <c r="S11" s="6">
+        <v>2</v>
+      </c>
+      <c r="T11" s="6">
+        <v>2</v>
+      </c>
+      <c r="U11" s="6">
+        <v>57</v>
+      </c>
+      <c r="V11" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W11" s="6">
+        <v>20</v>
+      </c>
+      <c r="X11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="17">
         <v>0.20046884346862004</v>
       </c>
-      <c r="S11" s="6">
-        <v>1</v>
-      </c>
-      <c r="T11" s="6">
-        <v>1</v>
-      </c>
-      <c r="U11" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="V11" s="6">
-        <v>1.2</v>
+      <c r="Z11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AC11" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="AD11" s="6">
+        <v>54</v>
+      </c>
+      <c r="AE11" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF11" s="6">
+        <v>66</v>
+      </c>
+      <c r="AG11" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH11" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI11" s="6">
+        <v>57</v>
+      </c>
+      <c r="AJ11" s="6">
+        <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -1608,28 +2144,70 @@
         <v>1.2</v>
       </c>
       <c r="P12" s="6">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="Q12" s="6">
-        <v>0</v>
-      </c>
-      <c r="R12" s="17">
+        <v>2</v>
+      </c>
+      <c r="R12" s="6">
+        <v>66</v>
+      </c>
+      <c r="S12" s="6">
+        <v>2</v>
+      </c>
+      <c r="T12" s="6">
+        <v>2</v>
+      </c>
+      <c r="U12" s="6">
+        <v>57</v>
+      </c>
+      <c r="V12" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W12" s="6">
+        <v>20</v>
+      </c>
+      <c r="X12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="17">
         <v>1.0023442173431001</v>
       </c>
-      <c r="S12" s="6">
-        <v>1</v>
-      </c>
-      <c r="T12" s="6">
-        <v>1</v>
-      </c>
-      <c r="U12" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="V12" s="6">
-        <v>1.2</v>
+      <c r="Z12" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AC12" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="AD12" s="6">
+        <v>54</v>
+      </c>
+      <c r="AE12" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF12" s="6">
+        <v>66</v>
+      </c>
+      <c r="AG12" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH12" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI12" s="6">
+        <v>57</v>
+      </c>
+      <c r="AJ12" s="6">
+        <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -1676,28 +2254,70 @@
         <v>1.2</v>
       </c>
       <c r="P13" s="6">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="Q13" s="6">
-        <v>0</v>
-      </c>
-      <c r="R13" s="17">
+        <v>2</v>
+      </c>
+      <c r="R13" s="6">
+        <v>66</v>
+      </c>
+      <c r="S13" s="6">
+        <v>2</v>
+      </c>
+      <c r="T13" s="6">
+        <v>2</v>
+      </c>
+      <c r="U13" s="6">
+        <v>57</v>
+      </c>
+      <c r="V13" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W13" s="6">
+        <v>20</v>
+      </c>
+      <c r="X13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="17">
         <v>0.79042001139055906</v>
       </c>
-      <c r="S13" s="6">
-        <v>1</v>
-      </c>
-      <c r="T13" s="6">
-        <v>1</v>
-      </c>
-      <c r="U13" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="V13" s="6">
-        <v>1.2</v>
+      <c r="Z13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AC13" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="AD13" s="6">
+        <v>54</v>
+      </c>
+      <c r="AE13" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF13" s="6">
+        <v>66</v>
+      </c>
+      <c r="AG13" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH13" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI13" s="6">
+        <v>57</v>
+      </c>
+      <c r="AJ13" s="6">
+        <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -1744,28 +2364,70 @@
         <v>1.2</v>
       </c>
       <c r="P14" s="6">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="6">
-        <v>0</v>
-      </c>
-      <c r="R14" s="17">
+        <v>2</v>
+      </c>
+      <c r="R14" s="6">
+        <v>66</v>
+      </c>
+      <c r="S14" s="6">
+        <v>2</v>
+      </c>
+      <c r="T14" s="6">
+        <v>2</v>
+      </c>
+      <c r="U14" s="6">
+        <v>57</v>
+      </c>
+      <c r="V14" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W14" s="6">
+        <v>20</v>
+      </c>
+      <c r="X14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="17">
         <v>1.4128571428571426</v>
       </c>
-      <c r="S14" s="6">
-        <v>1</v>
-      </c>
-      <c r="T14" s="6">
-        <v>1</v>
-      </c>
-      <c r="U14" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="V14" s="6">
-        <v>1.2</v>
+      <c r="Z14" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AC14" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="AD14" s="6">
+        <v>54</v>
+      </c>
+      <c r="AE14" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="6">
+        <v>66</v>
+      </c>
+      <c r="AG14" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH14" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI14" s="6">
+        <v>57</v>
+      </c>
+      <c r="AJ14" s="6">
+        <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -1812,28 +2474,70 @@
         <v>1.2</v>
       </c>
       <c r="P15" s="6">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="6">
-        <v>0</v>
-      </c>
-      <c r="R15" s="17">
+        <v>2</v>
+      </c>
+      <c r="R15" s="6">
+        <v>66</v>
+      </c>
+      <c r="S15" s="6">
+        <v>2</v>
+      </c>
+      <c r="T15" s="6">
+        <v>2</v>
+      </c>
+      <c r="U15" s="6">
+        <v>57</v>
+      </c>
+      <c r="V15" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W15" s="6">
+        <v>20</v>
+      </c>
+      <c r="X15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="17">
         <v>0.40093768693724008</v>
       </c>
-      <c r="S15" s="6">
-        <v>1</v>
-      </c>
-      <c r="T15" s="6">
-        <v>1</v>
-      </c>
-      <c r="U15" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="V15" s="6">
-        <v>1.2</v>
+      <c r="Z15" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AC15" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="AD15" s="6">
+        <v>54</v>
+      </c>
+      <c r="AE15" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF15" s="6">
+        <v>66</v>
+      </c>
+      <c r="AG15" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH15" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI15" s="6">
+        <v>57</v>
+      </c>
+      <c r="AJ15" s="6">
+        <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -1880,28 +2584,70 @@
         <v>1.2</v>
       </c>
       <c r="P16" s="6">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="Q16" s="6">
-        <v>0</v>
-      </c>
-      <c r="R16" s="17">
+        <v>2</v>
+      </c>
+      <c r="R16" s="6">
+        <v>66</v>
+      </c>
+      <c r="S16" s="6">
+        <v>2</v>
+      </c>
+      <c r="T16" s="6">
+        <v>2</v>
+      </c>
+      <c r="U16" s="6">
+        <v>57</v>
+      </c>
+      <c r="V16" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W16" s="6">
+        <v>20</v>
+      </c>
+      <c r="X16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="17">
         <v>0.40093768693724008</v>
       </c>
-      <c r="S16" s="6">
-        <v>1</v>
-      </c>
-      <c r="T16" s="6">
-        <v>1</v>
-      </c>
-      <c r="U16" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="V16" s="6">
-        <v>1.2</v>
+      <c r="Z16" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AC16" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="AD16" s="6">
+        <v>54</v>
+      </c>
+      <c r="AE16" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF16" s="6">
+        <v>66</v>
+      </c>
+      <c r="AG16" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH16" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI16" s="6">
+        <v>57</v>
+      </c>
+      <c r="AJ16" s="6">
+        <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -1948,28 +2694,70 @@
         <v>1.2</v>
       </c>
       <c r="P17" s="6">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="Q17" s="6">
-        <v>0</v>
-      </c>
-      <c r="R17" s="17">
+        <v>2</v>
+      </c>
+      <c r="R17" s="6">
+        <v>66</v>
+      </c>
+      <c r="S17" s="6">
+        <v>2</v>
+      </c>
+      <c r="T17" s="6">
+        <v>2</v>
+      </c>
+      <c r="U17" s="6">
+        <v>57</v>
+      </c>
+      <c r="V17" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W17" s="6">
+        <v>20</v>
+      </c>
+      <c r="X17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="17">
         <v>1.4128571428571426</v>
       </c>
-      <c r="S17" s="6">
-        <v>1</v>
-      </c>
-      <c r="T17" s="6">
-        <v>1</v>
-      </c>
-      <c r="U17" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="V17" s="6">
-        <v>1.2</v>
+      <c r="Z17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AC17" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="AD17" s="6">
+        <v>54</v>
+      </c>
+      <c r="AE17" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF17" s="6">
+        <v>66</v>
+      </c>
+      <c r="AG17" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH17" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI17" s="6">
+        <v>57</v>
+      </c>
+      <c r="AJ17" s="6">
+        <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -2016,28 +2804,70 @@
         <v>1.2</v>
       </c>
       <c r="P18" s="6">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="Q18" s="6">
-        <v>0</v>
-      </c>
-      <c r="R18" s="17">
+        <v>2</v>
+      </c>
+      <c r="R18" s="6">
+        <v>66</v>
+      </c>
+      <c r="S18" s="6">
+        <v>2</v>
+      </c>
+      <c r="T18" s="6">
+        <v>2</v>
+      </c>
+      <c r="U18" s="6">
+        <v>57</v>
+      </c>
+      <c r="V18" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W18" s="6">
+        <v>20</v>
+      </c>
+      <c r="X18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="17">
         <v>1.4128571428571426</v>
       </c>
-      <c r="S18" s="6">
-        <v>1</v>
-      </c>
-      <c r="T18" s="6">
-        <v>1</v>
-      </c>
-      <c r="U18" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="V18" s="6">
-        <v>1.2</v>
+      <c r="Z18" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AC18" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="AD18" s="6">
+        <v>54</v>
+      </c>
+      <c r="AE18" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF18" s="6">
+        <v>66</v>
+      </c>
+      <c r="AG18" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH18" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI18" s="6">
+        <v>57</v>
+      </c>
+      <c r="AJ18" s="6">
+        <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -2084,28 +2914,70 @@
         <v>1.2</v>
       </c>
       <c r="P19" s="6">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="Q19" s="6">
-        <v>0</v>
-      </c>
-      <c r="R19" s="17">
+        <v>2</v>
+      </c>
+      <c r="R19" s="6">
+        <v>66</v>
+      </c>
+      <c r="S19" s="6">
+        <v>2</v>
+      </c>
+      <c r="T19" s="6">
+        <v>2</v>
+      </c>
+      <c r="U19" s="6">
+        <v>57</v>
+      </c>
+      <c r="V19" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W19" s="6">
+        <v>20</v>
+      </c>
+      <c r="X19" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="17">
         <v>1.3832350199334786</v>
       </c>
-      <c r="S19" s="6">
-        <v>1</v>
-      </c>
-      <c r="T19" s="6">
-        <v>1</v>
-      </c>
-      <c r="U19" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="V19" s="6">
-        <v>1.2</v>
+      <c r="Z19" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AC19" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="AD19" s="6">
+        <v>54</v>
+      </c>
+      <c r="AE19" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF19" s="6">
+        <v>66</v>
+      </c>
+      <c r="AG19" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH19" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI19" s="6">
+        <v>57</v>
+      </c>
+      <c r="AJ19" s="6">
+        <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -2152,28 +3024,70 @@
         <v>1.2</v>
       </c>
       <c r="P20" s="6">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="Q20" s="6">
-        <v>0</v>
-      </c>
-      <c r="R20" s="17">
+        <v>2</v>
+      </c>
+      <c r="R20" s="6">
+        <v>66</v>
+      </c>
+      <c r="S20" s="6">
+        <v>2</v>
+      </c>
+      <c r="T20" s="6">
+        <v>2</v>
+      </c>
+      <c r="U20" s="6">
+        <v>57</v>
+      </c>
+      <c r="V20" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W20" s="6">
+        <v>20</v>
+      </c>
+      <c r="X20" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="17">
         <v>1.976050028476398</v>
       </c>
-      <c r="S20" s="6">
-        <v>1</v>
-      </c>
-      <c r="T20" s="6">
-        <v>1</v>
-      </c>
-      <c r="U20" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="V20" s="6">
-        <v>1.2</v>
+      <c r="Z20" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AC20" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="AD20" s="6">
+        <v>54</v>
+      </c>
+      <c r="AE20" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF20" s="6">
+        <v>66</v>
+      </c>
+      <c r="AG20" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH20" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI20" s="6">
+        <v>57</v>
+      </c>
+      <c r="AJ20" s="6">
+        <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
     </row>

--- a/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F2_relay_banshee.xlsx
+++ b/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F2_relay_banshee.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="12132" windowWidth="23256" windowHeight="2508"/>
+    <workbookView xWindow="-15" yWindow="12135" windowWidth="23250" windowHeight="2505"/>
   </bookViews>
   <sheets>
     <sheet name="relays" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -855,39 +855,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1:AJ1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2:AJ20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="16" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" style="6" customWidth="1"/>
-    <col min="9" max="15" width="12.33203125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="13.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" style="6" customWidth="1"/>
+    <col min="9" max="15" width="12.28515625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="6" customWidth="1"/>
     <col min="17" max="17" width="13" style="6" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="12.109375" style="6" customWidth="1"/>
-    <col min="20" max="21" width="9.109375" style="6"/>
-    <col min="22" max="22" width="11.109375" style="6" customWidth="1"/>
-    <col min="23" max="27" width="12.33203125" style="6" customWidth="1"/>
-    <col min="28" max="29" width="11.33203125" style="6" customWidth="1"/>
-    <col min="30" max="30" width="13.44140625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" style="6" customWidth="1"/>
+    <col min="20" max="21" width="9.140625" style="6"/>
+    <col min="22" max="22" width="11.140625" style="6" customWidth="1"/>
+    <col min="23" max="27" width="12.28515625" style="6" customWidth="1"/>
+    <col min="28" max="29" width="11.28515625" style="6" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" style="6" customWidth="1"/>
     <col min="31" max="31" width="13" style="6" customWidth="1"/>
-    <col min="32" max="32" width="11.6640625" style="6" customWidth="1"/>
-    <col min="33" max="33" width="12.109375" style="6" customWidth="1"/>
-    <col min="34" max="35" width="9.109375" style="6"/>
-    <col min="36" max="36" width="11.109375" style="6" customWidth="1"/>
-    <col min="37" max="16384" width="9.109375" style="6"/>
+    <col min="32" max="32" width="11.7109375" style="6" customWidth="1"/>
+    <col min="33" max="33" width="12.140625" style="6" customWidth="1"/>
+    <col min="34" max="35" width="9.140625" style="6"/>
+    <col min="36" max="36" width="11.140625" style="6" customWidth="1"/>
+    <col min="37" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" s="7" customFormat="1" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -997,7 +997,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1056,13 +1056,13 @@
         <v>2</v>
       </c>
       <c r="T2" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U2" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V2" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W2" s="6">
         <v>20</v>
@@ -1098,16 +1098,16 @@
         <v>2</v>
       </c>
       <c r="AH2" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI2" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ2" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -1166,13 +1166,13 @@
         <v>2</v>
       </c>
       <c r="T3" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U3" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V3" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W3" s="6">
         <v>20</v>
@@ -1208,16 +1208,16 @@
         <v>2</v>
       </c>
       <c r="AH3" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI3" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ3" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -1276,13 +1276,13 @@
         <v>2</v>
       </c>
       <c r="T4" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U4" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V4" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W4" s="6">
         <v>20</v>
@@ -1318,16 +1318,16 @@
         <v>2</v>
       </c>
       <c r="AH4" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI4" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ4" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -1386,13 +1386,13 @@
         <v>2</v>
       </c>
       <c r="T5" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U5" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V5" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W5" s="6">
         <v>20</v>
@@ -1428,16 +1428,16 @@
         <v>2</v>
       </c>
       <c r="AH5" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI5" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ5" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -1496,13 +1496,13 @@
         <v>2</v>
       </c>
       <c r="T6" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U6" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V6" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W6" s="6">
         <v>20</v>
@@ -1538,16 +1538,16 @@
         <v>2</v>
       </c>
       <c r="AH6" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI6" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ6" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -1606,13 +1606,13 @@
         <v>2</v>
       </c>
       <c r="T7" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U7" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V7" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W7" s="6">
         <v>20</v>
@@ -1648,16 +1648,16 @@
         <v>2</v>
       </c>
       <c r="AH7" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI7" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ7" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -1716,13 +1716,13 @@
         <v>2</v>
       </c>
       <c r="T8" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U8" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V8" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W8" s="6">
         <v>20</v>
@@ -1758,16 +1758,16 @@
         <v>2</v>
       </c>
       <c r="AH8" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI8" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ8" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -1826,13 +1826,13 @@
         <v>2</v>
       </c>
       <c r="T9" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U9" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V9" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W9" s="6">
         <v>20</v>
@@ -1868,16 +1868,16 @@
         <v>2</v>
       </c>
       <c r="AH9" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI9" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ9" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -1936,13 +1936,13 @@
         <v>2</v>
       </c>
       <c r="T10" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U10" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V10" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W10" s="6">
         <v>20</v>
@@ -1978,16 +1978,16 @@
         <v>2</v>
       </c>
       <c r="AH10" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI10" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ10" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -2046,13 +2046,13 @@
         <v>2</v>
       </c>
       <c r="T11" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U11" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V11" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W11" s="6">
         <v>20</v>
@@ -2088,16 +2088,16 @@
         <v>2</v>
       </c>
       <c r="AH11" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI11" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ11" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -2156,13 +2156,13 @@
         <v>2</v>
       </c>
       <c r="T12" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U12" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V12" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W12" s="6">
         <v>20</v>
@@ -2198,16 +2198,16 @@
         <v>2</v>
       </c>
       <c r="AH12" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI12" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ12" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -2266,13 +2266,13 @@
         <v>2</v>
       </c>
       <c r="T13" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U13" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V13" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W13" s="6">
         <v>20</v>
@@ -2308,16 +2308,16 @@
         <v>2</v>
       </c>
       <c r="AH13" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI13" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ13" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -2376,13 +2376,13 @@
         <v>2</v>
       </c>
       <c r="T14" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U14" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V14" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W14" s="6">
         <v>20</v>
@@ -2418,16 +2418,16 @@
         <v>2</v>
       </c>
       <c r="AH14" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI14" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ14" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -2486,13 +2486,13 @@
         <v>2</v>
       </c>
       <c r="T15" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U15" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V15" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W15" s="6">
         <v>20</v>
@@ -2528,16 +2528,16 @@
         <v>2</v>
       </c>
       <c r="AH15" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI15" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ15" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -2596,13 +2596,13 @@
         <v>2</v>
       </c>
       <c r="T16" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U16" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V16" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W16" s="6">
         <v>20</v>
@@ -2638,16 +2638,16 @@
         <v>2</v>
       </c>
       <c r="AH16" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI16" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ16" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -2706,13 +2706,13 @@
         <v>2</v>
       </c>
       <c r="T17" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U17" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V17" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W17" s="6">
         <v>20</v>
@@ -2748,16 +2748,16 @@
         <v>2</v>
       </c>
       <c r="AH17" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI17" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ17" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -2816,13 +2816,13 @@
         <v>2</v>
       </c>
       <c r="T18" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U18" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V18" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W18" s="6">
         <v>20</v>
@@ -2858,16 +2858,16 @@
         <v>2</v>
       </c>
       <c r="AH18" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI18" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ18" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -2926,13 +2926,13 @@
         <v>2</v>
       </c>
       <c r="T19" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U19" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V19" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W19" s="6">
         <v>20</v>
@@ -2968,16 +2968,16 @@
         <v>2</v>
       </c>
       <c r="AH19" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI19" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ19" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -3036,13 +3036,13 @@
         <v>2</v>
       </c>
       <c r="T20" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U20" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V20" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W20" s="6">
         <v>20</v>
@@ -3078,16 +3078,16 @@
         <v>2</v>
       </c>
       <c r="AH20" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI20" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ20" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
     </row>
